--- a/Table/client/lua/exe/temp/C 藏宝图.xlsx
+++ b/Table/client/lua/exe/temp/C 藏宝图.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0A5DCB-9FC5-4CAF-946A-5D47FB2D6BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,17 +14,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6B8B7DCD-E303-4088-99B0-730CD0ABA355}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,11 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>道具ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +73,6 @@
   <si>
     <t>宝珠</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级藏宝图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级藏宝图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级藏宝图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>挖宝坐标</t>
@@ -118,13 +107,68 @@
   <si>
     <t>44126,2642,2432,10010,1,300,1001000|54394,6880,19582,10003,1,300,1000300|14069,760,-22771,10022,301,500,1002200|19811,-1187,15650,10013,1,300,1001300</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初級藏寶圖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中級藏寶圖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級藏寶圖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>초급 보물지도</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>중급 보물지도</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>고급 보물지도</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +223,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +271,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,115 +554,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="124.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="124.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40304</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40305</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="H3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40306</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>300</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Table/client/lua/exe/temp/C 藏宝图.xlsx
+++ b/Table/client/lua/exe/temp/C 藏宝图.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0A5DCB-9FC5-4CAF-946A-5D47FB2D6BDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,23 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6B8B7DCD-E303-4088-99B0-730CD0ABA355}">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>道具ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +72,18 @@
   <si>
     <t>宝珠</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级藏宝图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级藏宝图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级藏宝图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>挖宝坐标</t>
@@ -107,68 +118,13 @@
   <si>
     <t>44126,2642,2432,10010,1,300,1001000|54394,6880,19582,10003,1,300,1000300|14069,760,-22771,10022,301,500,1002200|19811,-1187,15650,10013,1,300,1001300</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初級藏寶圖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中級藏寶圖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高級藏寶圖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>초급 보물지도</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>중급 보물지도</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>고급 보물지도</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,26 +179,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +214,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,126 +494,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="124.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="124.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40304</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40305</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40306</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>300</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
